--- a/template_task.xlsx
+++ b/template_task.xlsx
@@ -1,32 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\BC35E_Capstone_HTML-CSS_Group4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC9A54B-CA2D-434C-BB80-8E7D407825AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611E9763-7F0D-4BDD-8897-3E06920A1E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mitsg4nKYzU0T1mG+CZd0js0eHfeQ=="/>
     </ext>
@@ -35,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -164,6 +154,24 @@
   </si>
   <si>
     <t>26/08/2022</t>
+  </si>
+  <si>
+    <t>21/08/2022</t>
+  </si>
+  <si>
+    <t>22/08/2022</t>
+  </si>
+  <si>
+    <t>27/08/2022</t>
+  </si>
+  <si>
+    <t>28/08/2022</t>
+  </si>
+  <si>
+    <t>29/08/2022</t>
+  </si>
+  <si>
+    <t>30/08/2022</t>
   </si>
 </sst>
 </file>
@@ -864,14 +872,15 @@
   <dimension ref="A1:J992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="4" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
     <col min="6" max="6" width="7.625" customWidth="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
@@ -1157,9 +1166,15 @@
       <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
       <c r="E12" s="19" t="s">
         <v>27</v>
       </c>
@@ -1173,9 +1188,15 @@
       <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
       <c r="E13" s="20" t="s">
         <v>27</v>
       </c>
@@ -1189,9 +1210,15 @@
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
       <c r="E14" s="20" t="s">
         <v>27</v>
       </c>
@@ -1205,9 +1232,15 @@
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
       <c r="E15" s="20" t="s">
         <v>27</v>
       </c>
@@ -1221,9 +1254,15 @@
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
       <c r="E16" s="20" t="s">
         <v>27</v>
       </c>
